--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,08%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>27,33%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>40,82%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>29,21%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,54%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>42,75%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>38,48%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>43,55%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>38,79%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,34%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>54,61%</t>
+          <t>54,86%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>51,73%</t>
+          <t>51,63%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>40,93%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>52,38%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>61,96%</t>
+          <t>61,62%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>44,87%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,11%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,35%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,07%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>27,61%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>40,14%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>29,73%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,4%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>42,45%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>38,98%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,41%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>43,99%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>38,85%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,27%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>54,86%</t>
+          <t>54,61%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>36,72%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>47,03%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>51,73%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>40,89%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>62,53%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>61,96%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>45,0%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>48,33%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>37,29%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -682,63 +682,63 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>103435</v>
+        <v>105955</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>32622</v>
+        <v>28353</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>67</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>136057</v>
+        <v>134308</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>56</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>117071</v>
+        <v>125866</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>28</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>47853</v>
+        <v>43882</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>84</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>164924</v>
+        <v>169748</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>45</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>105148</v>
+        <v>110403</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>86</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>149154</v>
+        <v>125893</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>131</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>254302</v>
+        <v>236296</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>38,89%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>52025</v>
+        <v>57763</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>72</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>125327</v>
+        <v>115072</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>97</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>177352</v>
+        <v>172835</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>30,31%</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1041,63 +1041,63 @@
         <v>57</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>87094</v>
+        <v>85709</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>36</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>46921</v>
+        <v>42706</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
         <v>93</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>134016</v>
+        <v>128415</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -1112,63 +1112,63 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>62970</v>
+        <v>60829</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>41</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>53140</v>
+        <v>48076</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>84</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>116110</v>
+        <v>108904</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>101</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>130347</v>
+        <v>126262</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>206</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>220617</v>
+        <v>254920</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>307</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>350964</v>
+        <v>381182</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>100</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>146625</v>
+        <v>149562</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>177</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>177898</v>
+        <v>165802</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>277</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>324524</v>
+        <v>315363</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>38,4%</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>301</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>427037</v>
+        <v>422361</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>925614</v>
+        <v>933865</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1400,63 +1400,63 @@
         <v>70</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>80717</v>
+        <v>77018</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>64</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>48696</v>
+        <v>45196</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>134</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>129413</v>
+        <v>122214</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -1471,49 +1471,49 @@
         <v>84</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>92694</v>
+        <v>88490</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
         <v>52</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>37878</v>
+        <v>35039</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
         <v>136</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>130573</v>
+        <v>123529</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -1542,63 +1542,63 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>194294</v>
+        <v>184757</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>400</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>272282</v>
+        <v>250156</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>50,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>600</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>466576</v>
+        <v>434913</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>43,49%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>190</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>186866</v>
+        <v>183535</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>327</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>222823</v>
+        <v>210475</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>517</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>409689</v>
+        <v>394010</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>544</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>554571</v>
+        <v>533801</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>843</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>581680</v>
+        <v>540865</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>1387</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1136251</v>
+        <v>1074666</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1759,63 +1759,63 @@
         <v>71</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>74923</v>
+        <v>70419</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>80</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>54909</v>
+        <v>50717</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>151</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>129832</v>
+        <v>121135</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -1830,63 +1830,63 @@
         <v>69</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>80164</v>
+        <v>75173</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>69</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>46863</v>
+        <v>42930</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>138</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>127028</v>
+        <v>118103</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -1901,63 +1901,63 @@
         <v>291</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>335139</v>
+        <v>516793</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>80,72%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>594</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>374920</v>
+        <v>343970</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
         <v>885</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>710058</v>
+        <v>860762</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>54,61%</t>
+          <t>73,09%</t>
         </is>
       </c>
     </row>
@@ -1972,63 +1972,63 @@
         <v>233</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>232644</v>
+        <v>224352</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>396</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>269759</v>
+        <v>274506</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>48,2%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>629</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>502404</v>
+        <v>498858</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>37,62%</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>664</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>722871</v>
+        <v>886737</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>1139</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>746451</v>
+        <v>712122</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>1803</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1469322</v>
+        <v>1598858</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -2118,63 +2118,63 @@
         <v>39</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>34532</v>
+        <v>31924</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
         <v>72</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45362</v>
+        <v>41459</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>111</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>79895</v>
+        <v>73383</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -2189,63 +2189,63 @@
         <v>49</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43652</v>
+        <v>39317</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>39</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>24755</v>
+        <v>22489</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>88</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>68407</v>
+        <v>61806</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -2260,63 +2260,63 @@
         <v>319</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>285265</v>
+        <v>268290</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>522</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>299052</v>
+        <v>274882</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>841</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>584316</v>
+        <v>543172</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>51,73%</t>
+          <t>51,89%</t>
         </is>
       </c>
     </row>
@@ -2331,63 +2331,63 @@
         <v>254</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>234655</v>
+        <v>219753</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
         <v>364</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>222817</v>
+        <v>204671</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
         <v>618</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>457472</v>
+        <v>424424</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>40,92%</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>661</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>598105</v>
+        <v>559284</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>997</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>591986</v>
+        <v>543501</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>1658</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1190090</v>
+        <v>1102785</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -2474,66 +2474,66 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>33207</v>
+        <v>20315</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>21068</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
           <t>3,47%</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>34015</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>67222</v>
+        <v>41383</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -2545,66 +2545,66 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>26942</v>
+        <v>16508</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>27561</v>
+        <v>17969</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>54503</v>
+        <v>34476</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -2616,66 +2616,66 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>579</v>
+        <v>338</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>386778</v>
+        <v>215910</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>52,38%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>767</v>
+        <v>455</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>498269</v>
+        <v>419895</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>1346</v>
+        <v>793</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>885047</v>
+        <v>635805</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>61,96%</t>
+          <t>84,56%</t>
         </is>
       </c>
     </row>
@@ -2687,66 +2687,66 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>248058</v>
+        <v>114569</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>831</v>
+        <v>296</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>464232</v>
+        <v>148857</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>1190</v>
+        <v>471</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>712290</v>
+        <v>263426</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>35,09%</t>
         </is>
       </c>
     </row>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>694986</v>
+        <v>367301</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>1024077</v>
+        <v>607789</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>2730</v>
+        <v>1395</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1719063</v>
+        <v>975090</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -2833,66 +2833,66 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>413909</v>
+        <v>10175</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>330</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>262526</v>
+        <v>9408</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>661</v>
+        <v>35</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>676435</v>
+        <v>19583</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -2904,66 +2904,66 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>423494</v>
+        <v>8589</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>238051</v>
+        <v>6690</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>619</v>
+        <v>28</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>661545</v>
+        <v>15279</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -2975,66 +2975,66 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1535</v>
+        <v>241</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1436970</v>
+        <v>145743</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>2575</v>
+        <v>312</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>1814294</v>
+        <v>140541</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4110</v>
+        <v>553</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3251264</v>
+        <v>286284</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>43,23%</t>
         </is>
       </c>
     </row>
@@ -3046,66 +3046,66 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1161</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1100874</v>
+        <v>116568</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2167</v>
+        <v>535</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>1482857</v>
+        <v>267629</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>60,1%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3328</v>
+        <v>719</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2583731</v>
+        <v>384196</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>57,38%</t>
         </is>
       </c>
     </row>
@@ -3117,79 +3117,439 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
+        <v>456</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>281075</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>879</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>424269</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>1335</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>705343</v>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Entrenamiento físico varias veces a la semana</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>401516</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>238907</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>661</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>640422</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Actividad física regular, varias veces al mes</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>414771</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>217074</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>631845</v>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1568158</v>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>2575</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>1810256</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>49,55%</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>45,44%</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>57,53%</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>4110</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>3378413</v>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>54,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1161</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1066102</v>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>33,86%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>2167</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>1387012</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>31,84%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>3328</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>2453114</v>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>36,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>3367</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>3375248</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="D43" s="2" t="n">
+        <v>3450546</v>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>5351</v>
       </c>
-      <c r="I38" s="2" t="n">
-        <v>3797728</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
+      <c r="I43" s="2" t="n">
+        <v>3653248</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="n">
         <v>8718</v>
       </c>
-      <c r="N38" s="2" t="n">
-        <v>7172976</v>
-      </c>
-      <c r="O38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="N43" s="2" t="n">
+        <v>7103794</v>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="C1:G1"/>

--- a/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>105955</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>105955</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>79251</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>138342</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>26,49%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>34,12%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>28353</v>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28353</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17851</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40932</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>9,05%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>134308</v>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>134308</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>102423</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>171003</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>18,83%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>14,48%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>23,89%</t>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>125866</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125866</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>95855</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>159441</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>31,47%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>24,16%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>39,43%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>43882</v>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43882</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29279</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>61057</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>14,01%</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>19,57%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>169748</v>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>169748</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>134429</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>207633</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>23,8%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>19,38%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>29,82%</t>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>110403</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>110403</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>83721</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>143503</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>27,6%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,62%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>36,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>125893</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,88%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>125893</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>103677</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>148605</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>40,2%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>33,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>236296</v>
-      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>236296</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>200976</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>276525</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>33,13%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>28,11%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>38,89%</t>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>57763</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20416</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>6667</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>52430</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>115072</v>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>53402</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>172835</v>
+          <t>36946</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73625</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>73818</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>52918</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>109039</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -959,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>399987</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37347</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>21502</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>57985</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>313200</v>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>61670</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>713187</v>
+          <t>44743</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84047</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>99017</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>75322</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>133000</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>85709</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>399987</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>399987</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>399987</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>42706</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>313200</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>128415</v>
+          <t>313200</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>313200</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>60829</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>85709</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>68128</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>110391</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>48076</v>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>42706</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>108904</v>
+          <t>25238</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60316</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>128415</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>95294</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>159010</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>126262</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>60829</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>43686</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>83203</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>254920</v>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>48076</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>307</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>381182</v>
+          <t>28277</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>65992</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>108904</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>137761</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>149562</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126262</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>102811</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>149316</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>165802</v>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>206</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>254920</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>277</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>315363</v>
+          <t>206132</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>360640</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49,84%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>381182</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>324064</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>34,7%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>55,24%</t>
         </is>
       </c>
     </row>
@@ -1318,145 +1744,225 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>301</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>422361</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82130</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>63132</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>102872</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>511504</v>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65264</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>761</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>933865</v>
+          <t>38361</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>84542</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>147394</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>109574</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>177616</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>77018</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67432</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>50678</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>89058</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>45196</v>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>100538</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>122214</v>
+          <t>61613</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>124007</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>167970</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>128130</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>201132</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>17,99%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -1464,141 +1970,229 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>88490</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>422361</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>422361</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>422361</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>35039</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>511504</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>123529</v>
+          <t>511504</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>511504</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>933865</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>933865</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>933865</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>184757</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>77018</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>61099</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>95793</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>250156</v>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>45196</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>434913</v>
+          <t>35120</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>57162</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>122214</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>101634</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>142294</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>183535</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88490</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>71148</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>108261</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>327</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>210475</v>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>35039</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>517</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>394010</v>
+          <t>26079</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44404</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>123529</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>104276</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>146267</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -1677,145 +2313,225 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>544</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>533801</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>184757</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>161448</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>207032</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>843</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>540865</v>
+          <t>34,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>400</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>250156</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1387</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1074666</v>
+          <t>231503</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>269984</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46,25%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>42,8%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>434913</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>403565</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>465509</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>43,32%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>70419</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>80657</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>63918</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>99726</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>50717</v>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>80590</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>121135</v>
+          <t>66781</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>94797</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>161247</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>139311</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>184678</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
         </is>
       </c>
     </row>
@@ -1823,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>75173</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>102879</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>83779</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>120882</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>42930</v>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>202</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>129884</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>118103</v>
+          <t>113818</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>146066</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>232763</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>207009</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>257521</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -1894,141 +2652,229 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>291</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>516793</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>533801</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>533801</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>533801</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>594</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>343970</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>843</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>540865</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>885</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>860762</v>
+          <t>540865</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>540865</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1074666</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1074666</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1074666</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>224352</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70419</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>27416</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>101747</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>396</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>274506</v>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>50717</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>498858</v>
+          <t>40183</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>62915</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>121135</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>76293</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>153862</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
         </is>
       </c>
     </row>
@@ -2036,145 +2882,225 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>664</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>886737</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>75173</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>30961</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>112748</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1139</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>712122</v>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>42930</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>1803</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>1598858</v>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>54148</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>118103</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>70893</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>149423</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>31924</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>516793</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>363269</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>731367</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>41459</v>
+          <t>58,28%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40,97%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>82,48%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>594</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>343970</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>73383</v>
+          <t>284249</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>369016</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>48,3%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>860762</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>713127</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1168744</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>53,84%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>44,6%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -2182,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>39317</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>120878</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>52808</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>179591</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>22489</v>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>142276</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>61806</v>
+          <t>110320</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>249004</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>263154</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>158140</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>347156</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
         </is>
       </c>
     </row>
@@ -2253,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>319</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>268290</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>103474</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>44448</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>151160</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>522</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>274882</v>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>132230</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>841</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>543172</v>
+          <t>110597</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>150087</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>235704</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>136076</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>286578</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
         </is>
       </c>
     </row>
@@ -2324,216 +3334,342 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>254</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>219753</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>886737</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>886737</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>886737</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>364</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>204671</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>712122</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>618</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>424424</v>
+          <t>712122</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>712122</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>1598858</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>1598858</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>1598858</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>559284</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>31924</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23208</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>42610</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>997</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>543501</v>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>41459</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>1658</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>1102785</v>
+          <t>33622</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>51919</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>73383</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>59647</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>88770</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>65-74</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>20315</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>39317</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>29339</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>52264</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>21068</v>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>22489</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>41383</v>
+          <t>16459</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>31319</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>61806</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>48485</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>75519</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -2541,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>16508</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>268290</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>247727</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>292111</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>17969</v>
+          <t>47,97%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,23%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>522</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>274882</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>34476</v>
+          <t>259061</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>292327</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>50,58%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>543172</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>514761</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>572538</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>49,25%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>51,92%</t>
         </is>
       </c>
     </row>
@@ -2612,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>338</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>215910</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>131706</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>110941</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>150228</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>455</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>419895</v>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>129540</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>793</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>635805</v>
+          <t>115271</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>144174</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>261247</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>238779</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>286213</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -2683,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>114569</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>88047</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>72253</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>104561</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>148857</v>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>75131</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>471</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>263426</v>
+          <t>62951</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>86902</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>163178</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>143537</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>185060</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
         </is>
       </c>
     </row>
@@ -2757,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>569</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>367301</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>559284</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>559284</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>559284</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2778,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>826</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>607789</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>997</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>543501</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>1395</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>975090</v>
+          <t>543501</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>543501</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2816,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1102785</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>1102785</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>1102785</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2824,75 +4128,117 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>75 o más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>10175</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>20315</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>14008</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>28652</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>9408</v>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>21068</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>19583</v>
+          <t>8011</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>35766</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>41383</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>18525</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>56912</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -2900,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>8589</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>16508</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>11037</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>24080</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>6690</v>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>17969</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>15279</v>
+          <t>6518</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>29790</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>34476</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>15889</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>48467</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -2971,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>145743</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>215910</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>51,85%</t>
+          <t>199364</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>230249</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>56,33%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>312</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>140541</v>
+          <t>58,78%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>54,28%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>62,69%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>419895</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>553</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>286284</v>
+          <t>317209</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>529446</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>69,09%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>635805</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>537933</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>824912</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>65,2%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -3042,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>116568</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>81883</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>70057</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>95416</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>535</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>267629</v>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>101227</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>384196</v>
+          <t>41663</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>159101</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>183110</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>81717</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>237649</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -3113,216 +4585,342 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>456</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>281075</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>32686</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24507</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>41989</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>879</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>424269</v>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>47631</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>1335</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>705343</v>
+          <t>20164</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>76455</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>80316</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>38221</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>108200</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>401516</v>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>367301</t>
+        </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>367301</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>367301</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>238907</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>826</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>607789</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>640422</v>
+          <t>607789</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>607789</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>975090</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>975090</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>975090</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>414771</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>10175</t>
+        </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>6099</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>16249</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>217074</v>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>9408</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>631845</v>
+          <t>5735</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>14366</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>19583</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>13959</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>27351</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -3330,70 +4928,112 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>1535</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1568158</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>8589</t>
+        </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>14354</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>2575</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>1810256</v>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>6690</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>4110</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>3378413</v>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>10826</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>15279</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>10357</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>22632</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -3401,70 +5041,112 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>1161</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1066102</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>145743</t>
+        </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>133239</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>157581</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>2167</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>1387012</v>
+          <t>51,85%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>56,06%</t>
+        </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>140541</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>3328</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>2453114</v>
+          <t>127791</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>153416</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>286284</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>266429</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>305478</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>43,31%</t>
         </is>
       </c>
     </row>
@@ -3472,75 +5154,1025 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>3367</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>3450546</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>85784</t>
+        </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>75086</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>98335</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>5351</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>3653248</v>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>34,99%</t>
+        </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>356</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>183349</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>8718</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>7103794</v>
+          <t>169312</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>199700</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>43,22%</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>269133</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>250364</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>289527</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>30784</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>23063</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>39659</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>84280</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>72698</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>95406</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>115064</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>102108</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>130913</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>281075</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>281075</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>281075</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>424269</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>424269</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>424269</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>705343</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>705343</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>705343</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>401516</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>318403</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>462396</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>238907</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>194492</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>271469</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>640422</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>551010</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>713080</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>414771</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>333776</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>474290</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>217074</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>177890</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>249846</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>631845</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>546604</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>706277</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1568158</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>1403834</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>2001886</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>1810256</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>1672264</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>2170552</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>49,55%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>45,77%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>3378413</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>3116160</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>3872411</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>603454</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>471932</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>674553</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>755648</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>620377</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>843105</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>1359102</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>1185873</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>1485947</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>462648</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>366725</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>520105</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>631364</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>514108</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>689909</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>1094012</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>949168</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>1187350</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3548,18 +6180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
